--- a/philosophers.xlsx
+++ b/philosophers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>42 philosophers - tests</t>
   </si>
@@ -49,7 +49,7 @@
     <t>ends</t>
   </si>
   <si>
-    <t>nobody eats</t>
+    <t>nobody eats ?</t>
   </si>
   <si>
     <t>death</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>death before 210ms</t>
+  </si>
+  <si>
+    <t>no death?</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="b" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="20.45" customHeight="1">
@@ -1455,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="20.45" customHeight="1">
@@ -1480,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="20.45" customHeight="1">
@@ -1532,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="20.45" customHeight="1">
@@ -1584,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="20.45" customHeight="1">
@@ -1609,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="20.45" customHeight="1">
@@ -1634,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="20.45" customHeight="1">
@@ -1659,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="20.45" customHeight="1">
@@ -1684,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="20.45" customHeight="1">
@@ -1709,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="H14" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="20.45" customHeight="1">
@@ -1734,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="20.45" customHeight="1">
@@ -1761,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="20.45" customHeight="1">
@@ -1811,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="20.45" customHeight="1">
@@ -1836,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="b" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="20.45" customHeight="1">
@@ -1861,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="H20" t="b" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="20.45" customHeight="1">
@@ -1937,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s" s="16">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H23" t="b" s="14">
         <v>0</v>
